--- a/TCC - Monografia/Documentos/CaracterísticasAbrasil-2.xlsx
+++ b/TCC - Monografia/Documentos/CaracterísticasAbrasil-2.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="LCP" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="LCP base line " sheetId="2" r:id="rId2"/>
+    <sheet name="LCP baseline. div. cate. rastre" sheetId="3" r:id="rId3"/>
     <sheet name="Plan1" sheetId="4" r:id="rId4"/>
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan2!$C$2:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LCP base line '!$C$2:$E$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -984,6 +984,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,34 +1030,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,20 +1045,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
     <cellStyle name="Título 1" xfId="2" builtinId="16"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill>
@@ -1079,6 +1079,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1142,6 +1184,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -1149,6 +1205,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1205,6 +1268,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1212,6 +1331,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1310,7 +1436,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1318,902 +1444,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2670,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B90"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,13 +1913,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2706,37 +1936,37 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="5" t="s">
         <v>84</v>
       </c>
@@ -2751,7 +1981,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2771,7 +2001,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2019,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2037,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2055,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2843,7 +2073,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2861,7 +2091,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2109,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2127,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2915,7 +2145,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2933,7 +2163,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2951,7 +2181,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
@@ -2969,7 +2199,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3"/>
@@ -2978,7 +2208,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2996,7 +2226,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3014,7 +2244,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3032,7 +2262,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3"/>
@@ -3041,7 +2271,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -3059,7 +2289,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
@@ -3077,7 +2307,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
@@ -3095,7 +2325,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="3"/>
@@ -3104,7 +2334,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -3122,7 +2352,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -3140,7 +2370,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +2388,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3176,7 +2406,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -3194,7 +2424,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +2442,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -3230,7 +2460,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -3248,7 +2478,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="3"/>
@@ -3257,7 +2487,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
@@ -3275,7 +2505,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
@@ -3293,7 +2523,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
@@ -3311,7 +2541,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
@@ -3329,7 +2559,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
@@ -3347,7 +2577,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
@@ -3365,7 +2595,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
@@ -3383,7 +2613,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
@@ -3401,7 +2631,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>37</v>
       </c>
@@ -3419,7 +2649,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +2667,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -3455,7 +2685,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
       </c>
@@ -3473,7 +2703,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -3491,7 +2721,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
@@ -3509,7 +2739,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
@@ -3527,7 +2757,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="3" t="s">
         <v>42</v>
       </c>
@@ -3545,7 +2775,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="3" t="s">
         <v>43</v>
       </c>
@@ -3563,7 +2793,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
@@ -3581,7 +2811,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
@@ -3599,7 +2829,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
@@ -3617,7 +2847,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
@@ -3635,7 +2865,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
@@ -3653,7 +2883,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -3671,7 +2901,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="3" t="s">
         <v>54</v>
       </c>
@@ -3689,7 +2919,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="3"/>
@@ -3698,7 +2928,7 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3716,7 +2946,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="3" t="s">
         <v>57</v>
       </c>
@@ -3734,7 +2964,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>58</v>
       </c>
@@ -3752,7 +2982,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="3" t="s">
         <v>87</v>
       </c>
@@ -3770,7 +3000,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="3" t="s">
         <v>59</v>
       </c>
@@ -3788,7 +3018,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="3" t="s">
         <v>60</v>
       </c>
@@ -3806,7 +3036,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3054,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>89</v>
       </c>
@@ -3842,7 +3072,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="3" t="s">
         <v>61</v>
       </c>
@@ -3860,7 +3090,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="3" t="s">
         <v>62</v>
       </c>
@@ -3878,7 +3108,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="3" t="s">
         <v>63</v>
       </c>
@@ -3896,7 +3126,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="3" t="s">
         <v>90</v>
       </c>
@@ -3914,7 +3144,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="3" t="s">
         <v>65</v>
       </c>
@@ -3932,7 +3162,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="3" t="s">
         <v>66</v>
       </c>
@@ -3950,7 +3180,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="3" t="s">
         <v>95</v>
       </c>
@@ -3968,7 +3198,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="3"/>
@@ -3977,7 +3207,7 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="3" t="s">
         <v>68</v>
       </c>
@@ -3995,7 +3225,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>69</v>
       </c>
@@ -4013,7 +3243,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>70</v>
       </c>
@@ -4031,7 +3261,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="3" t="s">
         <v>91</v>
       </c>
@@ -4049,7 +3279,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
@@ -4067,7 +3297,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
@@ -4085,7 +3315,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
@@ -4103,7 +3333,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="3"/>
@@ -4112,7 +3342,7 @@
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
@@ -4130,7 +3360,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="3" t="s">
         <v>76</v>
       </c>
@@ -4148,7 +3378,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="3" t="s">
         <v>77</v>
       </c>
@@ -4166,7 +3396,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="3" t="s">
         <v>78</v>
       </c>
@@ -4185,6 +3415,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A37:A61"/>
     <mergeCell ref="A62:A77"/>
     <mergeCell ref="A78:A85"/>
@@ -4193,53 +3428,48 @@
     <mergeCell ref="A28:A36"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="187" priority="10" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="11" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",C1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="12" operator="equal">
       <formula>"Crítico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="184" priority="7" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="8" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="73" priority="8" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="9" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="181" priority="4" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="5" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="6" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="178" priority="1" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="2" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="3" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4264,13 +3494,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -5029,35 +4259,35 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="175" priority="16" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="65" priority="16" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="17" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
       <formula>"Crítico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="172" priority="13" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="14" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="15" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="containsText" dxfId="169" priority="10" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="11" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="12" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="57" priority="12" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5070,46 +4300,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.42578125" style="37" customWidth="1"/>
+    <col min="4" max="6" width="13.42578125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -5123,11 +4353,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5141,11 +4371,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -5159,11 +4389,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -5177,11 +4407,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -5195,11 +4425,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5213,11 +4443,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -5231,11 +4461,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -5249,11 +4479,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -5267,11 +4497,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -5285,21 +4515,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -5313,11 +4543,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -5331,11 +4561,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -5349,11 +4579,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -5367,11 +4597,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -5385,33 +4615,33 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -5425,11 +4655,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -5443,11 +4673,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -5461,11 +4691,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -5479,11 +4709,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -5497,11 +4727,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -5515,11 +4745,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -5533,11 +4763,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -5551,11 +4781,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -5569,11 +4799,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -5587,11 +4817,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="27" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5605,11 +4835,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -5623,11 +4853,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -5641,11 +4871,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -5659,11 +4889,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -5677,11 +4907,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -5695,21 +4925,21 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -5723,11 +4953,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -5741,11 +4971,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -5759,11 +4989,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -5777,11 +5007,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -5796,11 +5026,11 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="27" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -5814,33 +5044,33 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -5854,11 +5084,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="40" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -5872,11 +5102,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -5890,11 +5120,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -5908,11 +5138,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -5926,43 +5156,43 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="42" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -5976,11 +5206,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -5994,11 +5224,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -6012,11 +5242,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -6030,11 +5260,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -6048,11 +5278,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -6066,8 +5296,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -6084,11 +5314,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -6102,11 +5332,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -6120,21 +5350,21 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="42" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="40" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -6148,11 +5378,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -6166,11 +5396,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -6184,11 +5414,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="40" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -6202,11 +5432,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="40" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -6220,11 +5450,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="40" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -6238,33 +5468,33 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="45" t="s">
+      <c r="F66" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -6278,11 +5508,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="40" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -6296,11 +5526,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="40" t="s">
+      <c r="A69" s="47"/>
+      <c r="B69" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -6314,11 +5544,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="40" t="s">
+      <c r="A70" s="47"/>
+      <c r="B70" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -6332,11 +5562,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="40" t="s">
+      <c r="A71" s="47"/>
+      <c r="B71" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -6350,11 +5580,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="14" t="s">
@@ -6368,11 +5598,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -6386,11 +5616,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="40" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -6404,27 +5634,27 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="42" t="s">
+      <c r="A75" s="47"/>
+      <c r="B75" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="40" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="30" t="s">
         <v>112</v>
       </c>
       <c r="F76" s="14" t="s">
@@ -6432,11 +5662,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="40" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -6450,11 +5680,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="40" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -6468,11 +5698,11 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="40" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -6486,17 +5716,17 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="40" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="30" t="s">
         <v>112</v>
       </c>
       <c r="F80" s="14" t="s">
@@ -6504,17 +5734,17 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="40" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="30" t="s">
         <v>112</v>
       </c>
       <c r="F81" s="14" t="s">
@@ -6522,11 +5752,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
-      <c r="B82" s="40" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -6556,211 +5786,211 @@
     <mergeCell ref="A2:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D17 D36:D41 D50:D58 D60:D65 D76:D1048576 D19:D34 D43:D47 D67:D74">
-    <cfRule type="containsText" dxfId="113" priority="57" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="56" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="55" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="110" priority="52" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="53" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="54" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="107" priority="49" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="50" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="51" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="104" priority="46" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="47" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="48" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="containsText" dxfId="101" priority="43" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="44" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="45" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17 E19:E41 E43:E48 E50:E65 E67:E1048576">
-    <cfRule type="containsText" dxfId="98" priority="42" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="41" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="40" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F19:F41 F43:F48 F50:F65 F67:F1048576">
-    <cfRule type="containsText" dxfId="95" priority="39" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="38" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="69" priority="34" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="35" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="36" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="32" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="57" priority="28" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="30" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Útil">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Útil">
       <formula>NOT(ISERROR(SEARCH("Útil",D66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Crítico">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Crítico">
       <formula>NOT(ISERROR(SEARCH("Crítico",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Difícil">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Difícil">
       <formula>NOT(ISERROR(SEARCH("Difícil",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Fácil">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Fácil">
       <formula>NOT(ISERROR(SEARCH("Fácil",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Baixo">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Baixo">
       <formula>NOT(ISERROR(SEARCH("Baixo",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Médio">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Alto">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Alto">
       <formula>NOT(ISERROR(SEARCH("Alto",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
